--- a/web/excel_examples/wh_import.xlsx
+++ b/web/excel_examples/wh_import.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25703"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomkat/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1980" yWindow="1000" windowWidth="19900" windowHeight="16280"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Location Name</t>
   </si>
@@ -19,11 +32,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -32,20 +42,10 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -84,48 +84,103 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00DD0806"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -317,7 +372,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -326,7 +381,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -335,7 +390,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -344,7 +399,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -353,7 +408,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -362,7 +417,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -474,8 +529,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -483,14 +538,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -509,7 +564,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -517,7 +572,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -545,7 +600,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -571,7 +626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -597,7 +652,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -623,7 +678,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -649,7 +704,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -675,7 +730,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -701,7 +756,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -727,7 +782,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -753,7 +808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,9 +821,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -784,7 +845,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -803,7 +864,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -829,7 +890,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -855,7 +916,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -881,7 +942,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -907,7 +968,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -933,7 +994,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,7 +1020,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,7 +1046,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,7 +1072,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1098,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,9 +1111,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1065,7 +1132,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1084,7 +1151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1114,7 +1181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1140,7 +1207,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1166,7 +1233,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1192,7 +1259,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1218,7 +1285,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1311,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1337,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1296,7 +1363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +1389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1335,107 +1402,112 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="256" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="5" customWidth="1"/>
+    <col min="2" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="19" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="19" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="19" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="19" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="19" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="19" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="19" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="19" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
